--- a/output/12-functional-enrichment/manual-annotations/all-CC-EnrichedGO-DML-ManAnn.xlsx
+++ b/output/12-functional-enrichment/manual-annotations/all-CC-EnrichedGO-DML-ManAnn.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/project-gigas-oa-meth/output/12-functional-enrichment/manual-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0C1342F-281A-9749-987F-DC9B56B1CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADA690D-6295-C041-8CB8-22AF5DF4BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-CC-EnrichedGO-DML-ManAnn" sheetId="1" r:id="rId1"/>
     <sheet name="functions" sheetId="2" r:id="rId2"/>
+    <sheet name="transcript-gene" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="112">
   <si>
     <t>GOID</t>
   </si>
@@ -463,11 +497,17 @@
       <t xml:space="preserve"> Poquita-Du et al. 2020: Changes to gene expression after heat exposure in Pact, implicated in calcification</t>
     </r>
   </si>
+  <si>
+    <t>unique-transcript</t>
+  </si>
+  <si>
+    <t>unique-gene</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1322,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4887,10 +4927,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5126,4 +5166,872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4CE654-5C19-E24C-807B-EDE0C21F5F04}">
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>105347397</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:C26">_xlfn.UNIQUE(A2:A93)</f>
+        <v>XM_034462443.1</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D7">_xlfn.UNIQUE(B2:B93)</f>
+        <v>105347397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>105347397</v>
+      </c>
+      <c r="C3" t="str">
+        <v>XM_034465963.1</v>
+      </c>
+      <c r="D3">
+        <v>105342492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>105347397</v>
+      </c>
+      <c r="C4" t="str">
+        <v>XM_034465964.1</v>
+      </c>
+      <c r="D4">
+        <v>105320366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>105342492</v>
+      </c>
+      <c r="C5" t="str">
+        <v>XM_034465965.1</v>
+      </c>
+      <c r="D5">
+        <v>105330782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>105342492</v>
+      </c>
+      <c r="C6" t="str">
+        <v>XM_034469289.1</v>
+      </c>
+      <c r="D6">
+        <v>105337636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>105342492</v>
+      </c>
+      <c r="C7" t="str">
+        <v>XM_034479303.1</v>
+      </c>
+      <c r="D7">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>105320366</v>
+      </c>
+      <c r="C8" t="str">
+        <v>XM_034479304.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>105330782</v>
+      </c>
+      <c r="C9" t="str">
+        <v>XM_034479305.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>105330782</v>
+      </c>
+      <c r="C10" t="str">
+        <v>XM_034479306.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>105330782</v>
+      </c>
+      <c r="C11" t="str">
+        <v>XM_034479307.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>105330782</v>
+      </c>
+      <c r="C12" t="str">
+        <v>XM_034479684.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>105330782</v>
+      </c>
+      <c r="C13" t="str">
+        <v>XM_034479685.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>105337636</v>
+      </c>
+      <c r="C14" t="str">
+        <v>XM_034479686.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>105337636</v>
+      </c>
+      <c r="C15" t="str">
+        <v>XM_034479687.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>105337636</v>
+      </c>
+      <c r="C16" t="str">
+        <v>XM_034479688.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>105337636</v>
+      </c>
+      <c r="C17" t="str">
+        <v>XM_034482479.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>105337636</v>
+      </c>
+      <c r="C18" t="str">
+        <v>XM_034482480.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>105337636</v>
+      </c>
+      <c r="C19" t="str">
+        <v>XM_034482481.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>105337636</v>
+      </c>
+      <c r="C20" t="str">
+        <v>XM_034482482.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>105337636</v>
+      </c>
+      <c r="C21" t="str">
+        <v>XM_034482483.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
+        <v>105337636</v>
+      </c>
+      <c r="C22" t="str">
+        <v>XM_034482484.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>105337636</v>
+      </c>
+      <c r="C23" t="str">
+        <v>XM_034482485.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>105331446</v>
+      </c>
+      <c r="C24" t="str">
+        <v>XM_034482486.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>105331446</v>
+      </c>
+      <c r="C25" t="str">
+        <v>XM_034482487.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>105331446</v>
+      </c>
+      <c r="C26" t="str">
+        <v>XM_034482488.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>105331446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>105331446</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B93">
+    <sortCondition ref="A2:A93"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>